--- a/similarities/split_global/harmonic_similarity_timestamps_359.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_359.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,770 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:31.740000', '0:00:33.880000')]</t>
+          <t>('0:00:20.420000', '0:00:24.160000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:37.540000', '0:00:42.720000')]</t>
+          <t>('0:04:05.420000', '0:04:23.440000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=31.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=20.42</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=37.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=245.42</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['D:7', 'G', 'A:min7']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['G:7', 'C', 'D:min7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:04:11.500000', '0:04:17.660000')]</t>
+          <t>('0:00:31.957363', '0:00:36.264330')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:50.130000', '0:00:59.490000')]</t>
+          <t>('0:01:00.470000', '0:01:05.070000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=31.957363</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=50.13']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=60.47</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>['F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'G', 'C:maj']]</t>
+          <t>['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:03.605464', '0:00:10.966190')]</t>
+          <t>('0:00:36.220000', '0:00:49')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:32.808000', '0:00:36.091000')]</t>
+          <t>('0:01:45.220000', '0:02:02.720000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=3.605464']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=36.22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=32.808']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=105.22</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_224</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['E:7', 'A', 'E']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:27.660000', '0:01:36.720000')]</t>
+          <t>('0:00:55.002834', '0:00:59.124376')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:11.160000', '0:00:16.300000')]</t>
+          <t>('0:00:09.940000', '0:00:12.020000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=55.002834</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=9.94</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_102</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:00.120000', '0:01:03.420000')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:22.320000', '0:00:26.180000')]</t>
+          <t>('0:00:16.840000', '0:00:19.460000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=22.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
+          <t>['A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:53.240000', '0:01:04.220000')]</t>
+          <t>('0:01:20.160000', '0:01:26.120000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.680000', '0:00:03.740000')]</t>
+          <t>('0:01:50.780000', '0:01:59.340000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=53.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=80.16</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=110.78</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:00:43.120000', '0:00:52.840000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:01.150000', '0:00:05.734000')]</t>
+          <t>('0:00:14.220000', '0:00:46.760000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=43.12</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=14.22</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:12.820000', '0:01:30.640000')]</t>
+          <t>('0:00:44.200000', '0:00:59.980000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:08.700000', '0:00:37.670000')]</t>
+          <t>('0:01:03.840000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=44.2</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=8.7']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>schubert-winterreise_162</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:33.698526', '0:00:42.916848')]</t>
+          <t>('0:00:23.260000', '0:00:33.620000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:27.600000', '0:00:47.440000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=33.698526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=27.6</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:51.800000', '0:00:59.900000'), ('0:00:56.600000', '0:01:01.460000'), ('0:01:07.760000', '0:01:17.500000')]</t>
+          <t>('0:00:45.580000', '0:00:59.100000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:20.780000', '0:00:31.600000'), ('0:01:10.740000', '0:01:13.740000'), ('0:01:12.640000', '0:01:23.380000')]</t>
+          <t>('0:00:18.100000', '0:00:45.980000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=51.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=56.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=20.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=70.74', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=18.1</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>isophonics_46</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'F:7']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'G:7']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:14.440000', '0:00:18.960000')]</t>
+          <t>('0:00:28.921995', '0:00:33.101587')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:32.074829', '0:00:39.540045')]</t>
+          <t>('0:00:55.180000', '0:01:02.060000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=14.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-72#t=32.074829']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:min/5', 'C:min', 'F:min/5', 'C:min']]</t>
+          <t>['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:19.238000', '0:00:26.622000')]</t>
+          <t>('0:01:58.780000', '0:02:02.740000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:27.200000', '0:01:41.180000')]</t>
+          <t>('0:00:25.180000', '0:00:55.620000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=19.238']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=118.78</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=87.2']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=25.18</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>isophonics_92</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['B:7', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B']]</t>
+          <t>['E:7/G#', 'A:7/G', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:00:22.622607', '0:00:29.751133')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:55.629773', '0:01:07.541609')]</t>
+          <t>('0:00:56.920000', '0:01:03.560000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-92#t=22.622607</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=56.92</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj', 'A:min'], ['A:min/E', 'E:7', 'A:min'], ['C:maj/E', 'G:7', 'C:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:13.500000', '0:00:21.900000'), ('0:01:23.100000', '0:01:30.020000'), ('0:00:38.900000', '0:00:44.360000')]</t>
+          <t>('0:00:01.880000', '0:00:06.560000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:01', '0:00:05.360000'), ('0:02:04.300000', '0:02:09.240000'), ('0:00:34.640000', '0:00:39')]</t>
+          <t>('0:00:13.480000', '0:00:20.960000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=38.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=1.88</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=34.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'E/4'], ['D/5', 'A', 'D', 'A/3']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E'], ['D', 'A', 'D', 'A']]</t>
+          <t>['B', 'E', 'B']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:17.913000', '0:00:26.611000'), ('0:00:12.743000', '0:00:17.058000')]</t>
+          <t>('0:00:21.580000', '0:00:29.340000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:50.730362', '0:00:54.666145'), ('0:00:04.615532', '0:00:08.760294')]</t>
+          <t>('0:00:01.421269', '0:00:26.162131')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=17.913', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=50.730362', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=4.615532']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
